--- a/Narwhals_analysis_and_tools.xlsx
+++ b/Narwhals_analysis_and_tools.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cf1501201bb52d47/Desktop/Article/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="8_{ADCA17FE-40C8-418E-B371-057F5CB0BBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD759F61-BD04-4750-8292-35E06329ED89}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="8_{ADCA17FE-40C8-418E-B371-057F5CB0BBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{415A3664-54E0-4DA7-B2DC-5ADE9DDE405C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{7A3675CF-BC79-40A6-AF88-6C83E120D09B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{7A3675CF-BC79-40A6-AF88-6C83E120D09B}"/>
   </bookViews>
   <sheets>
     <sheet name="Libraries_Comparison" sheetId="2" r:id="rId1"/>
@@ -1281,9 +1281,6 @@
     </r>
   </si>
   <si>
-    <t>df.with_columns(nw.when(nw.col('x')&gt;0).then('A').otherwise('B').alias('z'))</t>
-  </si>
-  <si>
     <r>
       <t>when…then…otherwise</t>
     </r>
@@ -1630,6 +1627,9 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>df.with_columns(nw.when(nw.col('x') &gt; 0).then(nw.lit('Positive')).otherwise(nw.lit('Negative'))</t>
   </si>
 </sst>
 </file>
@@ -2677,21 +2677,21 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="6"/>
-    <col min="2" max="2" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" style="6" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="6"/>
+    <col min="2" max="2" width="12.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="5.54296875" style="6" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.7109375" style="6"/>
+    <col min="6" max="6" width="9.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9.453125" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="30">
+    <row r="2" spans="2:9" ht="29">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="30">
+    <row r="3" spans="2:9" ht="29">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="30">
+    <row r="4" spans="2:9" ht="29">
       <c r="B4" s="7" t="s">
         <v>36</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="30">
+    <row r="5" spans="2:9" ht="29">
       <c r="B5" s="7" t="s">
         <v>42</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="30">
+    <row r="6" spans="2:9" ht="29">
       <c r="B6" s="7" t="s">
         <v>61</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="45">
+    <row r="7" spans="2:9" ht="29">
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="30">
+    <row r="8" spans="2:9" ht="29">
       <c r="B8" s="7" t="s">
         <v>57</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="45">
+    <row r="9" spans="2:9" ht="43.5">
       <c r="B9" s="7" t="s">
         <v>66</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="45">
+    <row r="10" spans="2:9" ht="29">
       <c r="B10" s="7" t="s">
         <v>76</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="45">
+    <row r="11" spans="2:9" ht="43.5">
       <c r="B11" s="7" t="s">
         <v>94</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="42.75">
+    <row r="14" spans="2:9" ht="28">
       <c r="B14" s="16" t="s">
         <v>0</v>
       </c>
@@ -3416,10 +3416,10 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4060,14 +4060,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BD8AA8-993D-4581-A92F-F5040F3E2352}">
   <dimension ref="B2:E39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="5" width="45.140625" customWidth="1"/>
+    <col min="3" max="5" width="45.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -4075,7 +4075,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>111</v>
@@ -4084,7 +4084,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="30">
+    <row r="3" spans="2:5" ht="27">
       <c r="B3" s="19" t="s">
         <v>113</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="27.75">
+    <row r="4" spans="2:5" ht="27">
       <c r="B4" s="19" t="s">
         <v>117</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="30">
+    <row r="6" spans="2:5" ht="29">
       <c r="B6" s="19" t="s">
         <v>125</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="30">
+    <row r="13" spans="2:5" ht="29">
       <c r="B13" s="19" t="s">
         <v>152</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="30">
+    <row r="14" spans="2:5" ht="29">
       <c r="B14" s="19" t="s">
         <v>156</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="25.5">
+    <row r="15" spans="2:5" ht="25">
       <c r="B15" s="19" t="s">
         <v>160</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="27.75">
+    <row r="16" spans="2:5" ht="27">
       <c r="B16" s="19" t="s">
         <v>164</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="30">
+    <row r="18" spans="2:5" ht="29">
       <c r="B18" s="19" t="s">
         <v>172</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="27.75">
+    <row r="20" spans="2:5">
       <c r="B20" s="19" t="s">
         <v>180</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="27.75">
+    <row r="21" spans="2:5" ht="29">
       <c r="B21" s="19" t="s">
         <v>184</v>
       </c>
@@ -4348,7 +4348,7 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="2:5" ht="38.25">
+    <row r="22" spans="2:5" ht="37.5">
       <c r="B22" s="19" t="s">
         <v>187</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="25.5">
+    <row r="24" spans="2:5" ht="25">
       <c r="B24" s="19" t="s">
         <v>195</v>
       </c>
@@ -4384,214 +4384,214 @@
         <v>196</v>
       </c>
       <c r="D24" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="E24" s="20" t="s">
         <v>197</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="D25" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="E25" s="20" t="s">
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="19" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" ht="30">
-      <c r="B26" s="19" t="s">
+      <c r="C26" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="D26" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="E26" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="D27" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="D28" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="E28" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E28" s="3" t="s">
+    </row>
+    <row r="29" spans="2:5" ht="25">
+      <c r="B29" s="19" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" ht="25.5">
-      <c r="B29" s="19" t="s">
+      <c r="C29" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="D29" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="E29" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="E29" s="3" t="s">
+    </row>
+    <row r="30" spans="2:5" ht="29">
+      <c r="B30" s="19" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" ht="30">
-      <c r="B30" s="19" t="s">
+      <c r="C30" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="D30" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="D31" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="E31" s="20" t="s">
         <v>224</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="D32" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="E32" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E32" s="3" t="s">
+    </row>
+    <row r="33" spans="2:5" ht="25">
+      <c r="B33" s="19" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" ht="25.5">
-      <c r="B33" s="19" t="s">
+      <c r="C33" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="D33" s="20" t="s">
         <v>231</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>232</v>
       </c>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="D34" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="2:5" ht="25">
+      <c r="B35" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="2:5" ht="25.5">
-      <c r="B35" s="19" t="s">
+      <c r="C35" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="D35" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="2:5" ht="29">
+      <c r="B36" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="2:5" ht="30">
-      <c r="B36" s="19" t="s">
+      <c r="C36" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="D36" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="E36" s="20" t="s">
         <v>241</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="C37" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="D37" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D37" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="E37" s="3" t="s">
+    </row>
+    <row r="38" spans="2:5" ht="29">
+      <c r="B38" s="19" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" ht="30">
-      <c r="B38" s="19" t="s">
+      <c r="C38" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="D38" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="E38" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="E38" s="3" t="s">
+    </row>
+    <row r="39" spans="2:5" ht="25">
+      <c r="B39" s="19" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" ht="30">
-      <c r="B39" s="19" t="s">
+      <c r="C39" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="D39" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -4610,37 +4610,37 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="8" width="21.7109375" customWidth="1"/>
+    <col min="2" max="8" width="21.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="42.75">
+    <row r="2" spans="2:8" ht="42">
       <c r="B2" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>258</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C3" s="23">
         <v>6.5820000000000002E-3</v>
@@ -4665,7 +4665,7 @@
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C4" s="23">
         <v>10.614732</v>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C5" s="23">
         <v>4.8570000000000002E-3</v>
